--- a/propstuff/efficiency.xlsx
+++ b/propstuff/efficiency.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,75 +391,159 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>omega</t>
+          <t>omega_max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>T_max</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>Q_max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>diameter [in]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T_required</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>omega_required</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eta_required</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q_required</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rpm_proximity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apce_9x4.5</t>
+          <t>apce_11x10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6059937128902095</v>
+        <v>0.7540061046512919</v>
       </c>
       <c r="C2" t="n">
-        <v>588.5885885885887</v>
+        <v>2523.018018018018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04259948960463247</v>
+        <v>0.9169013860169709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003585046663004071</v>
+        <v>0.03676656484553424</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.074428421706004</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3849.079079079079</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6353680212962318</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.09603875834624453</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01407499482216219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gwssf_9x7</t>
+          <t>mae_10x7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7221227350305979</v>
+        <v>0.7130081348148849</v>
       </c>
       <c r="C3" t="n">
-        <v>452.4524524524525</v>
+        <v>2828.262262262263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04437241651101124</v>
+        <v>0.6778456450156943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004073385171399524</v>
+        <v>0.02567564020102218</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.115067328960975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4649.71971971972</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6033490995476896</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.08478261104671182</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01202510401573199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>apcsp_11x4</t>
+          <t>grcp_11x8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.488029772458256</v>
+        <v>0.7332959216789064</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6006006006006</v>
+        <v>2477.981981981982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09660631793499322</v>
+        <v>0.5143423750431122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009885997899631998</v>
+        <v>0.02162350791028191</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.868815980684376</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4604.683683683684</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5860667096474543</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1096873194103025</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02167644087540228</v>
       </c>
     </row>
     <row r="5">
@@ -469,1099 +553,1107 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7186573449307063</v>
+        <v>0.7186587729711932</v>
       </c>
       <c r="C5" t="n">
-        <v>364.3643643643644</v>
+        <v>2918.334334334334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06367804497753587</v>
+        <v>1.05647382361183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007289909058333755</v>
+        <v>0.03845431562618162</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.994705444202432</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4454.563563563564</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6048958837378436</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1131912211849061</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01294199496671936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>grcp_10x6</t>
+          <t>gwssf_10x8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5769837200316748</v>
+        <v>0.6920118520808768</v>
       </c>
       <c r="C6" t="n">
-        <v>496.4964964964965</v>
+        <v>3473.778778778779</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05180124381971601</v>
+        <v>1.045130677790299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00542329060271952</v>
+        <v>0.03322551277587488</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.530252332356379</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5965799835683946</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.09033555276141099</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.009107241527783692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gwssf_10x8</t>
+          <t>apcsp_11x8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.691987324788965</v>
+        <v>0.7230796010102483</v>
       </c>
       <c r="C7" t="n">
-        <v>432.4324324324324</v>
+        <v>2528.022022022022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06219365291714706</v>
+        <v>0.6519287698794185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006236400139319514</v>
+        <v>0.02727104710758183</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.99487437480076</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4394.515515515516</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6072419332504799</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1143552636637873</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01341836527202247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>grsn_9x5</t>
+          <t>apce_11x8.5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5791934230117596</v>
+        <v>0.660920496845289</v>
       </c>
       <c r="C8" t="n">
-        <v>600.6006006006006</v>
+        <v>3959.167167167167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05975276840926993</v>
+        <v>2.798819302048969</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005141706302378984</v>
+        <v>0.08180784129830045</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.996731141917171</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4569.655655655656</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6061055723769944</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1101141254791369</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.003004675944464843</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>apce_10x5</t>
+          <t>apcsp_11x7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6305356016559205</v>
+        <v>0.6990190381571941</v>
       </c>
       <c r="C9" t="n">
-        <v>492.4924924924925</v>
+        <v>2908.326326326327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04097747548375909</v>
+        <v>0.9346578265678781</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00397485668302129</v>
+        <v>0.03512167682294048</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.000311144098639</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4559.647647647648</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6039811762008345</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1111671391091796</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.009032195205236074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>apcsf_10x4.7</t>
+          <t>grsn_11x8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6411821718538399</v>
+        <v>0.6519349733749641</v>
       </c>
       <c r="C10" t="n">
-        <v>540.5405405405406</v>
+        <v>3879.103103103103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0863076797872324</v>
+        <v>2.491003255576276</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007472491385209921</v>
+        <v>0.07508226570926135</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.003948952777932</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4609.687687687688</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5995090459473738</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1104540615980619</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002748477866642969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>apce_11x8.5</t>
+          <t>apce_11x8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6595221310519905</v>
+        <v>0.7040153244010688</v>
       </c>
       <c r="C11" t="n">
-        <v>496.4964964964965</v>
+        <v>2803.242242242242</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1707754882211954</v>
+        <v>0.5664150950402035</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01565647546484362</v>
+        <v>0.02193035734291112</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.995670469916533</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4794.835835835836</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5975201385908415</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1066232962025065</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01134122460075484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rusp_11x4</t>
+          <t>mae_11x7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4830920632881204</v>
+        <v>0.6267399714639829</v>
       </c>
       <c r="C12" t="n">
-        <v>668.6686686686687</v>
+        <v>3288.630630630631</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1252634616208854</v>
+        <v>1.632566076028336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01165334390377207</v>
+        <v>0.06056389639060072</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.998592805621299</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4579.663663663664</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5277403202519643</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.126429155242826</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.009800930940101335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gwsdd_9x5</t>
+          <t>apcsp_10x8</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6148092068529745</v>
+        <v>0.6770112036219452</v>
       </c>
       <c r="C13" t="n">
-        <v>644.6446446446447</v>
+        <v>2913.330330330331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06399391414976599</v>
+        <v>0.6258551644765439</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004846690919499672</v>
+        <v>0.02425752832044062</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.582463732721002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5698267318135631</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.09607767065920923</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01148851099684185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>grsn_9x7</t>
+          <t>apcsp_10x9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6571631451490287</v>
+        <v>0.6274845699220311</v>
       </c>
       <c r="C14" t="n">
-        <v>500.5005005005006</v>
+        <v>2738.190190190191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08765938439697279</v>
+        <v>0.5921845764987493</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007996383942574561</v>
+        <v>0.02632004433477778</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.422084584358006</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4638872330804586</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1126675274006413</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0267640886216549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>apcsp_9x7</t>
+          <t>apce_17x12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6625446707106366</v>
+        <v>0.7419710350001758</v>
       </c>
       <c r="C15" t="n">
-        <v>552.5525525525526</v>
+        <v>1967.573573573574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09262790008735722</v>
+        <v>2.583404139357134</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007592512610603796</v>
+        <v>0.1352854854602445</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.00855515662669</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2232.785785785786</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7258017146684053</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1888784227262785</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0002614469199914082</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>grsn_11x8</t>
+          <t>apce_11x7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6501751245502683</v>
+        <v>0.6756200647893179</v>
       </c>
       <c r="C16" t="n">
-        <v>488.4884884884885</v>
+        <v>3098.478478478479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1546331072202002</v>
+        <v>0.6950746512293708</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01457438473713062</v>
+        <v>0.02541042034980525</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.758803684428392</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5649617459769845</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1016108632562826</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01224526352237203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>apcsf_9x3.8</t>
+          <t>ma_11x9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.566319873862828</v>
+        <v>0.6362312655728972</v>
       </c>
       <c r="C17" t="n">
-        <v>732.7327327327328</v>
+        <v>3028.422422422423</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09256494407912681</v>
+        <v>1.056325897025265</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006715086262615895</v>
+        <v>0.04186361149654293</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.002908738983594</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4674.73973973974</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5454690323550093</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1197760328482138</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.008237782978698274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mas_11x6</t>
+          <t>apcsp_11x9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5181502380244378</v>
+        <v>0.7016552026857945</v>
       </c>
       <c r="C18" t="n">
-        <v>456.4564564564565</v>
+        <v>2683.146146146146</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05761990563150804</v>
+        <v>1.026997981794919</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007309820270221959</v>
+        <v>0.04167240851439334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.997908456768801</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4304.443443443443</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5637039813127691</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.125936734634557</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01903053947830946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>apc29ff_9x4</t>
+          <t>grcsp_10x6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5513513336547649</v>
+        <v>0.7065741506911501</v>
       </c>
       <c r="C19" t="n">
-        <v>620.6206206206207</v>
+        <v>3323.658658658659</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04683314863516016</v>
+        <v>0.8045033028451025</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004111659258041324</v>
+        <v>0.02612174123891431</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.225997220135845</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6039586930640504</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.08159232048453999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01052993214401911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ance_8.5x6</t>
+          <t>grsn_11x10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.690963058775217</v>
+        <v>0.7202239651740644</v>
       </c>
       <c r="C20" t="n">
-        <v>552.5525525525526</v>
+        <v>2673.138138138138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05573532403273313</v>
+        <v>1.102223723543114</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004382413156747433</v>
+        <v>0.04375635622684224</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.996715359447731</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4079.263263263264</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.602188066797439</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1244290139490324</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01393247330557705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>apce_11x8</t>
+          <t>kyosho_11x7</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7039930674927979</v>
+        <v>0.7094917754662834</v>
       </c>
       <c r="C21" t="n">
-        <v>352.3523523523524</v>
+        <v>2843.274274274274</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03520689799677285</v>
+        <v>0.8404397742624585</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004257826900234507</v>
+        <v>0.03178203369392221</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.884853650973783</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4614.691691691692</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6062787000828741</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1060384397328368</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01065293893010133</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mae_11x7</t>
+          <t>apcsp_14x13</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6260027942582911</v>
+        <v>0.7119856213035577</v>
       </c>
       <c r="C22" t="n">
-        <v>412.4124124124124</v>
+        <v>1982.585585585586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09986934559301804</v>
+        <v>1.52546753167172</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01161278329637161</v>
+        <v>0.08256463974331933</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.001400067741505</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2708.166166166166</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6526135997814899</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1730122894560817</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.003525036939616879</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kavfk_11x6</t>
+          <t>apce_14x12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5143588570302544</v>
+        <v>0.6887456196230567</v>
       </c>
       <c r="C23" t="n">
-        <v>520.5205205205206</v>
+        <v>2092.673673673674</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0873544257844632</v>
+        <v>1.010798614365234</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009807821205841371</v>
+        <v>0.0536304564208164</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.002017115755278</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3028.422422422423</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6415462850857794</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1576202987172712</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002227777180761819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>apcsp_10x8</t>
+          <t>grsn_10x7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6770063286227115</v>
+        <v>0.6820059854411316</v>
       </c>
       <c r="C24" t="n">
-        <v>364.3643643643644</v>
+        <v>3233.586586586587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03799597067579822</v>
+        <v>0.7250640994051815</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004624191432084499</v>
+        <v>0.02508550589447676</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.393686977179072</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5941811328177178</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.08733232466958531</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.007713204738324349</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>apc29ff_9x5</t>
+          <t>apcsp_10x10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6428913710797881</v>
+        <v>0.6229788126556354</v>
       </c>
       <c r="C25" t="n">
-        <v>568.5685685685686</v>
+        <v>2618.094094094094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06099979973992091</v>
+        <v>0.6217054524669509</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005008400859378209</v>
+        <v>0.02909086430049326</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.580792070464316</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4138002763602326</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.132354483388006</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.04375566004668711</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>apcsp_10x4</t>
+          <t>ma_11x10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5472008064548418</v>
+        <v>0.7105000992999325</v>
       </c>
       <c r="C26" t="n">
-        <v>592.5925925925926</v>
+        <v>2678.142142142142</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06836793947098084</v>
+        <v>1.042741816471528</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006332999087705409</v>
+        <v>0.04184038841504</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.002437608506724</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4334.467467467468</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5797507174047408</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1216138419384803</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01709540086597468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>apcsp_10x6</t>
+          <t>kyosho_11x9</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6545465261978713</v>
+        <v>0.6891965052339547</v>
       </c>
       <c r="C27" t="n">
-        <v>444.4444444444445</v>
+        <v>2377.901901901902</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05443123617995298</v>
+        <v>0.5488006853267416</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005618581746256705</v>
+        <v>0.02563183293604797</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.00258348162748</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4554.643643643644</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5308388838278862</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1264649324979218</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02507713625738771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ance_8.5x7</t>
+          <t>gwssf_11x8</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6909493112852316</v>
+        <v>0.6811254281458944</v>
       </c>
       <c r="C28" t="n">
-        <v>548.5485485485486</v>
+        <v>3323.658658658659</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06551091298042157</v>
+        <v>1.4345282042029</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00518626712924766</v>
+        <v>0.0484060706175036</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.000482921486904</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4454.563563563564</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6085126847266348</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1127357722423413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.00527261050687123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>magf_10x6</t>
+          <t>magf_11x8</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6617540681791522</v>
+        <v>0.6469997480178348</v>
       </c>
       <c r="C29" t="n">
-        <v>544.5445445445446</v>
+        <v>2868.294294294295</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09950528397485682</v>
+        <v>0.7985889650887513</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008285094320591876</v>
+        <v>0.03285316129156499</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.004817358029771</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4644.715715715716</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5614118774538709</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1174436923740383</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.007325283587673836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kyosho_10x6</t>
+          <t>apcsf_11x4.7</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6838737603886913</v>
+        <v>0.6470737824547343</v>
       </c>
       <c r="C30" t="n">
-        <v>416.4164164164164</v>
+        <v>4104.283283283284</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03994029819257725</v>
+        <v>1.884171596884558</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004208826061494801</v>
+        <v>0.05413283628301582</v>
+      </c>
+      <c r="F30" t="n">
+        <v>11</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.597826967037447</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6092347639928261</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.09032204909484286</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.001431791318160636</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>apcsp_10x5</t>
+          <t>ma_11x8</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.592894892848</v>
+        <v>0.6223670073206959</v>
       </c>
       <c r="C31" t="n">
-        <v>484.4844844844845</v>
+        <v>3093.474474474475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04407946635099518</v>
+        <v>0.8689605377672781</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004621427308216288</v>
+        <v>0.03441123857321409</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.004580384944989</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4869.895895895897</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5527922790916071</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1137273433433307</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.004840642808151571</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>magf_9x5</t>
+          <t>magf_10x8</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6433921465709653</v>
+        <v>0.6879078495359925</v>
       </c>
       <c r="C32" t="n">
-        <v>556.5565565565566</v>
+        <v>2998.398398398399</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05029565959706018</v>
+        <v>0.6518145741795009</v>
       </c>
       <c r="E32" t="n">
-        <v>0.004211328171617207</v>
+        <v>0.02414526617707303</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.429690127175665</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5779536790323135</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.09064917162845985</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0120899196111521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>apce_11x7</t>
+          <t>apce_10x7</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6756111791641219</v>
+        <v>0.714006563165326</v>
       </c>
       <c r="C33" t="n">
-        <v>388.3883883883884</v>
+        <v>3293.634634634635</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04259195447588926</v>
+        <v>0.7943226918328677</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004878299914907082</v>
+        <v>0.02580523195948831</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.133388102846153</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6232287246788815</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.07672392142116975</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.008240615960271003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>apcsf_9x6</t>
+          <t>apce_19x12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6734073889737739</v>
+        <v>0.731899468195071</v>
       </c>
       <c r="C34" t="n">
-        <v>536.5365365365366</v>
+        <v>1982.585585585586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09966746977078914</v>
+        <v>4.066876032919682</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008265842079261756</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ma_11x9</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.6361893326954099</v>
-      </c>
-      <c r="C35" t="n">
-        <v>376.3763763763764</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.06253649870835479</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.007830795239413898</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>apcsp_11x9</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.7016400997201042</v>
-      </c>
-      <c r="C36" t="n">
-        <v>336.3363363363364</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.062984468813501</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.008007467130337328</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>grcsp_10x6</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.7065633189382377</v>
-      </c>
-      <c r="C37" t="n">
-        <v>416.4164164164164</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.04921251234806815</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.005008535633059164</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>gwssf_10x4.7</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5988865556802698</v>
-      </c>
-      <c r="C38" t="n">
-        <v>572.5725725725727</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1014524713177723</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.008878241752735227</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>grsn_11x10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.7201233269321664</v>
-      </c>
-      <c r="C39" t="n">
-        <v>332.3323323323324</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.06539114566768267</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.008200855170521881</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>magf_11x4</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5412526969147397</v>
-      </c>
-      <c r="C40" t="n">
-        <v>664.6646646646648</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1152604090473936</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.009603158773686836</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>apce_9x6</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.6790000449926119</v>
-      </c>
-      <c r="C41" t="n">
-        <v>456.4564564564565</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.03001496802086164</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.00290758186247792</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>gwssf_8x4.3</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.6276360399925655</v>
-      </c>
-      <c r="C42" t="n">
-        <v>752.7527527527528</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.06023758626093467</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.003825261727010271</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>grcsp_9x6</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.6620930421072674</v>
-      </c>
-      <c r="C43" t="n">
-        <v>504.5045045045046</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.08086097598123876</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.007265403065673297</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>grsn_10x7</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.6820057132583577</v>
-      </c>
-      <c r="C44" t="n">
-        <v>404.4044044044044</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.04401524900813641</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.004781800968627845</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>apce_11x5.5</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.6321988843525184</v>
-      </c>
-      <c r="C45" t="n">
-        <v>496.4964964964965</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0654339684557516</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.006245135749116377</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ma_11x10</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.7103930166466589</v>
-      </c>
-      <c r="C46" t="n">
-        <v>336.3363363363364</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.06422226924568841</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.008058385004587797</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>kyosho_11x9</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.6891652826720078</v>
-      </c>
-      <c r="C47" t="n">
-        <v>296.2962962962963</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.03272112177432903</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.004817103109525958</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>gwssf_11x8</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.6811228172916036</v>
-      </c>
-      <c r="C48" t="n">
-        <v>416.4164164164164</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0877376361094231</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.009279869596698994</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ma_11x7</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5224593592628178</v>
-      </c>
-      <c r="C49" t="n">
-        <v>512.5125125125126</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.08201428455582098</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.00918123712914772</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mas_9x7</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5965600829189757</v>
-      </c>
-      <c r="C50" t="n">
-        <v>504.5045045045046</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.05040643823646934</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.005021324160512548</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>apcsf_9x4.7</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.6172455057040755</v>
-      </c>
-      <c r="C51" t="n">
-        <v>612.6126126126127</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.07129653388361595</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.005651759633690469</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>gwssf_8x6</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.7251980812784148</v>
-      </c>
-      <c r="C52" t="n">
-        <v>512.5125125125126</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.03210081448374798</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.002593193878523602</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>magf_11x8</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.6469251146840963</v>
-      </c>
-      <c r="C53" t="n">
-        <v>356.3563563563564</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.04702490303905574</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.006114866270522695</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ma_11x4</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.405933654994616</v>
-      </c>
-      <c r="C54" t="n">
-        <v>876.876876876877</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.1990944718321365</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.01675134073449188</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>apcsf_11x4.7</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.6470740922184401</v>
-      </c>
-      <c r="C55" t="n">
-        <v>512.5125125125126</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.1136723517445955</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.0102703990879132</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ma_11x8</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.6223067456319825</v>
-      </c>
-      <c r="C56" t="n">
-        <v>388.3883883883884</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.05357951308393064</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.006639080556609012</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>gwssf_9x4.7</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.528128146873869</v>
-      </c>
-      <c r="C57" t="n">
-        <v>756.7567567567568</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.1120415757416641</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.008401644394341382</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>magf_10x8</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.6878596681271245</v>
-      </c>
-      <c r="C58" t="n">
-        <v>376.3763763763764</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0402490769552224</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.004664685924442771</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>grsn_10x6</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.6235114184328197</v>
-      </c>
-      <c r="C59" t="n">
-        <v>488.4884884884885</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.05450007131991132</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.005365369216350059</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>kavfk_9x6</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.6378279053243673</v>
-      </c>
-      <c r="C60" t="n">
-        <v>496.4964964964965</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.04745641867294669</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.004498057879401615</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>grcp_11x4</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.4611764879589031</v>
-      </c>
-      <c r="C61" t="n">
-        <v>732.7327327327328</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1244320453034519</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.01104708046877062</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>magf_9x4</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.551024733257666</v>
-      </c>
-      <c r="C62" t="n">
-        <v>692.6926926926927</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05940369658869992</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.004652301029859121</v>
+        <v>0.2141028438650027</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.066876032919682</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1982.585585585586</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.731899468195071</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2141028438650027</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
